--- a/assets/findings/2024-02-20-findings.xlsx
+++ b/assets/findings/2024-02-20-findings.xlsx
@@ -641,8 +641,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>0</v>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -674,8 +676,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>0</v>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -740,8 +744,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M3" t="b">
-        <v>1</v>
+      <c r="M3" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="N3" t="n">
         <v>642865</v>
@@ -776,8 +782,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U3" t="b">
-        <v>0</v>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -842,8 +850,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M4" t="b">
-        <v>0</v>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -875,8 +885,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U4" t="b">
-        <v>0</v>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -941,8 +953,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M5" t="b">
-        <v>0</v>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -974,8 +988,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U5" t="b">
-        <v>0</v>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -1040,8 +1056,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M6" t="b">
-        <v>0</v>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -1073,8 +1091,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U6" t="b">
-        <v>0</v>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
@@ -1139,8 +1159,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M7" t="b">
-        <v>0</v>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -1172,8 +1194,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U7" t="b">
-        <v>0</v>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
@@ -1238,8 +1262,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M8" t="b">
-        <v>0</v>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1271,8 +1297,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U8" t="b">
-        <v>0</v>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
@@ -1337,8 +1365,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M9" t="b">
-        <v>0</v>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1370,8 +1400,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U9" t="b">
-        <v>0</v>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
@@ -1436,8 +1468,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M10" t="b">
-        <v>0</v>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -1469,8 +1503,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U10" t="b">
-        <v>0</v>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
@@ -1535,8 +1571,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M11" t="b">
-        <v>0</v>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1568,8 +1606,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U11" t="b">
-        <v>0</v>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
@@ -1634,8 +1674,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M12" t="b">
-        <v>0</v>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1667,8 +1709,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U12" t="b">
-        <v>0</v>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
@@ -1733,8 +1777,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M13" t="b">
-        <v>0</v>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O13" s="1" t="inlineStr">
         <is>
@@ -1766,8 +1812,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U13" t="b">
-        <v>0</v>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
@@ -1832,8 +1880,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M14" t="b">
-        <v>0</v>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O14" s="1" t="inlineStr">
         <is>
@@ -1865,8 +1915,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U14" t="b">
-        <v>0</v>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
@@ -1931,8 +1983,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M15" t="b">
-        <v>0</v>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O15" s="1" t="inlineStr">
         <is>
@@ -1964,8 +2018,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U15" t="b">
-        <v>0</v>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
@@ -2030,8 +2086,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M16" t="b">
-        <v>0</v>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -2063,8 +2121,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U16" t="b">
-        <v>0</v>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
@@ -2129,8 +2189,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M17" t="b">
-        <v>0</v>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -2162,8 +2224,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U17" t="b">
-        <v>0</v>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
@@ -2228,8 +2292,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M18" t="b">
-        <v>0</v>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -2261,8 +2327,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U18" t="b">
-        <v>1</v>
+      <c r="U18" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
@@ -2327,8 +2395,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M19" t="b">
-        <v>0</v>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -2360,8 +2430,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U19" t="b">
-        <v>1</v>
+      <c r="U19" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
@@ -2426,8 +2498,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M20" t="b">
-        <v>0</v>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -2459,8 +2533,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U20" t="b">
-        <v>1</v>
+      <c r="U20" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
@@ -2525,8 +2601,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M21" t="b">
-        <v>0</v>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -2558,8 +2636,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U21" t="b">
-        <v>1</v>
+      <c r="U21" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
@@ -2624,8 +2704,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M22" t="b">
-        <v>0</v>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -2657,8 +2739,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U22" t="b">
-        <v>1</v>
+      <c r="U22" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
@@ -2723,8 +2807,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M23" t="b">
-        <v>0</v>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -2756,8 +2842,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U23" t="b">
-        <v>1</v>
+      <c r="U23" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
@@ -3023,8 +3111,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>0</v>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -3056,8 +3146,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>1</v>
+      <c r="U2" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -3122,8 +3214,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M3" t="b">
-        <v>0</v>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -3155,8 +3249,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U3" t="b">
-        <v>1</v>
+      <c r="U3" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -3221,8 +3317,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M4" t="b">
-        <v>0</v>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -3254,8 +3352,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U4" t="b">
-        <v>0</v>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -3320,8 +3420,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M5" t="b">
-        <v>0</v>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -3353,8 +3455,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U5" t="b">
-        <v>0</v>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -3419,8 +3523,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M6" t="b">
-        <v>0</v>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -3452,8 +3558,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U6" t="b">
-        <v>0</v>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
@@ -3518,8 +3626,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M7" t="b">
-        <v>0</v>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -3551,8 +3661,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U7" t="b">
-        <v>0</v>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
@@ -3617,8 +3729,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M8" t="b">
-        <v>0</v>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -3650,8 +3764,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U8" t="b">
-        <v>0</v>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
@@ -3716,8 +3832,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M9" t="b">
-        <v>0</v>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -3749,8 +3867,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U9" t="b">
-        <v>0</v>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
@@ -3815,8 +3935,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M10" t="b">
-        <v>0</v>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -3848,8 +3970,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U10" t="b">
-        <v>0</v>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
@@ -3914,8 +4038,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M11" t="b">
-        <v>0</v>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -3947,8 +4073,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U11" t="b">
-        <v>0</v>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
@@ -4013,8 +4141,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M12" t="b">
-        <v>0</v>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -4046,8 +4176,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U12" t="b">
-        <v>0</v>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
@@ -4112,8 +4244,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M13" t="b">
-        <v>0</v>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -4145,8 +4279,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U13" t="b">
-        <v>0</v>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
@@ -4211,8 +4347,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M14" t="b">
-        <v>0</v>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -4244,8 +4382,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U14" t="b">
-        <v>0</v>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
@@ -4493,8 +4633,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>0</v>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -4526,8 +4668,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>0</v>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -4592,8 +4736,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M3" t="b">
-        <v>0</v>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -4625,8 +4771,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U3" t="b">
-        <v>0</v>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -4691,8 +4839,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M4" t="b">
-        <v>0</v>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -4724,8 +4874,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U4" t="b">
-        <v>0</v>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -4790,8 +4942,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M5" t="b">
-        <v>0</v>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -4823,8 +4977,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U5" t="b">
-        <v>0</v>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -4889,8 +5045,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M6" t="b">
-        <v>0</v>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -4922,8 +5080,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U6" t="b">
-        <v>0</v>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
@@ -4988,8 +5148,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M7" t="b">
-        <v>0</v>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -5021,8 +5183,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U7" t="b">
-        <v>0</v>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
@@ -5087,8 +5251,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M8" t="b">
-        <v>0</v>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -5120,8 +5286,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U8" t="b">
-        <v>0</v>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
@@ -5186,8 +5354,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M9" t="b">
-        <v>0</v>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -5219,8 +5389,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U9" t="b">
-        <v>0</v>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
@@ -5285,8 +5457,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M10" t="b">
-        <v>0</v>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -5318,8 +5492,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U10" t="b">
-        <v>0</v>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
@@ -5384,8 +5560,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M11" t="b">
-        <v>0</v>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -5417,8 +5595,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U11" t="b">
-        <v>0</v>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
@@ -5483,8 +5663,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M12" t="b">
-        <v>0</v>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -5516,8 +5698,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U12" t="b">
-        <v>1</v>
+      <c r="U12" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
@@ -5582,8 +5766,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M13" t="b">
-        <v>0</v>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -5615,8 +5801,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U13" t="b">
-        <v>0</v>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
@@ -5681,8 +5869,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M14" t="b">
-        <v>0</v>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -5714,8 +5904,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U14" t="b">
-        <v>0</v>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
@@ -5780,8 +5972,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M15" t="b">
-        <v>0</v>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -5813,8 +6007,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U15" t="b">
-        <v>1</v>
+      <c r="U15" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
@@ -5879,8 +6075,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M16" t="b">
-        <v>0</v>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -5912,8 +6110,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U16" t="b">
-        <v>0</v>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
@@ -6165,8 +6365,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>1</v>
+      <c r="M2" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="N2" t="n">
         <v>42960087</v>
@@ -6201,8 +6403,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>1</v>
+      <c r="U2" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -6267,8 +6471,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M3" t="b">
-        <v>1</v>
+      <c r="M3" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="N3" t="n">
         <v>1202250</v>
@@ -6303,8 +6509,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U3" t="b">
-        <v>1</v>
+      <c r="U3" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -6369,8 +6577,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M4" t="b">
-        <v>1</v>
+      <c r="M4" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="N4" t="n">
         <v>2151468</v>
@@ -6405,8 +6615,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U4" t="b">
-        <v>1</v>
+      <c r="U4" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -6471,8 +6683,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M5" t="b">
-        <v>1</v>
+      <c r="M5" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="N5" t="n">
         <v>4771504</v>
@@ -6507,8 +6721,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U5" t="b">
-        <v>1</v>
+      <c r="U5" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -6573,8 +6789,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M6" t="b">
-        <v>1</v>
+      <c r="M6" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="N6" t="n">
         <v>4771504</v>
@@ -6609,8 +6827,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U6" t="b">
-        <v>1</v>
+      <c r="U6" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
@@ -6842,8 +7062,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>1</v>
+      <c r="M2" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="N2" t="n">
         <v>642865</v>
@@ -6878,8 +7100,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>0</v>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -6944,8 +7168,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M3" t="b">
-        <v>0</v>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O3" s="1" t="inlineStr">
         <is>
@@ -6977,8 +7203,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U3" t="b">
-        <v>0</v>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -7043,8 +7271,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M4" t="b">
-        <v>0</v>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O4" s="1" t="inlineStr">
         <is>
@@ -7076,8 +7306,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U4" t="b">
-        <v>0</v>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -7142,8 +7374,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M5" t="b">
-        <v>0</v>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O5" s="1" t="inlineStr">
         <is>
@@ -7175,8 +7409,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U5" t="b">
-        <v>0</v>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -7241,8 +7477,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M6" t="b">
-        <v>0</v>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -7274,8 +7512,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U6" t="b">
-        <v>0</v>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
@@ -7340,8 +7580,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M7" t="b">
-        <v>0</v>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -7373,8 +7615,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U7" t="b">
-        <v>0</v>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
@@ -7608,8 +7852,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>0</v>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O2" s="1" t="inlineStr">
         <is>
@@ -7641,8 +7887,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>0</v>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -7707,8 +7955,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M3" t="b">
-        <v>0</v>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O3" s="1" t="inlineStr">
         <is>
@@ -7740,8 +7990,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U3" t="b">
-        <v>0</v>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -7806,8 +8058,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M4" t="b">
-        <v>0</v>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O4" s="1" t="inlineStr">
         <is>
@@ -7839,8 +8093,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U4" t="b">
-        <v>0</v>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -7905,8 +8161,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M5" t="b">
-        <v>0</v>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O5" s="1" t="inlineStr">
         <is>
@@ -7938,8 +8196,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U5" t="b">
-        <v>0</v>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -8004,8 +8264,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M6" t="b">
-        <v>0</v>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O6" s="1" t="inlineStr">
         <is>
@@ -8037,8 +8299,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U6" t="b">
-        <v>0</v>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
@@ -8103,8 +8367,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M7" t="b">
-        <v>0</v>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O7" s="1" t="inlineStr">
         <is>
@@ -8136,8 +8402,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U7" t="b">
-        <v>1</v>
+      <c r="U7" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
@@ -8202,8 +8470,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M8" t="b">
-        <v>0</v>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O8" s="1" t="inlineStr">
         <is>
@@ -8235,8 +8505,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U8" t="b">
-        <v>1</v>
+      <c r="U8" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
@@ -8301,8 +8573,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M9" t="b">
-        <v>0</v>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O9" s="1" t="inlineStr">
         <is>
@@ -8334,8 +8608,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U9" t="b">
-        <v>1</v>
+      <c r="U9" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
@@ -8400,8 +8676,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M10" t="b">
-        <v>0</v>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O10" s="1" t="inlineStr">
         <is>
@@ -8433,8 +8711,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U10" t="b">
-        <v>1</v>
+      <c r="U10" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
@@ -8499,8 +8779,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M11" t="b">
-        <v>0</v>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O11" s="1" t="inlineStr">
         <is>
@@ -8532,8 +8814,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U11" t="b">
-        <v>1</v>
+      <c r="U11" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
@@ -8598,8 +8882,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M12" t="b">
-        <v>0</v>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O12" s="1" t="inlineStr">
         <is>
@@ -8631,8 +8917,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U12" t="b">
-        <v>1</v>
+      <c r="U12" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
@@ -8697,8 +8985,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M13" t="b">
-        <v>0</v>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O13" s="1" t="inlineStr">
         <is>
@@ -8730,8 +9020,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U13" t="b">
-        <v>1</v>
+      <c r="U13" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
@@ -8796,8 +9088,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M14" t="b">
-        <v>0</v>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O14" s="1" t="inlineStr">
         <is>
@@ -8829,8 +9123,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U14" t="b">
-        <v>0</v>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
@@ -8895,8 +9191,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M15" t="b">
-        <v>0</v>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O15" s="1" t="inlineStr">
         <is>
@@ -8928,8 +9226,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U15" t="b">
-        <v>1</v>
+      <c r="U15" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
@@ -8994,8 +9294,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M16" t="b">
-        <v>0</v>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -9027,8 +9329,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U16" t="b">
-        <v>1</v>
+      <c r="U16" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
@@ -9093,8 +9397,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M17" t="b">
-        <v>0</v>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -9126,8 +9432,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U17" t="b">
-        <v>0</v>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
@@ -9192,8 +9500,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M18" t="b">
-        <v>0</v>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -9225,8 +9535,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U18" t="b">
-        <v>0</v>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
@@ -9291,8 +9603,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M19" t="b">
-        <v>0</v>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -9324,8 +9638,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U19" t="b">
-        <v>0</v>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
@@ -9390,8 +9706,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M20" t="b">
-        <v>0</v>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O20" s="1" t="inlineStr">
         <is>
@@ -9423,8 +9741,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U20" t="b">
-        <v>1</v>
+      <c r="U20" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
@@ -9489,8 +9809,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M21" t="b">
-        <v>0</v>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O21" s="1" t="inlineStr">
         <is>
@@ -9522,8 +9844,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U21" t="b">
-        <v>0</v>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
@@ -9588,8 +9912,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M22" t="b">
-        <v>0</v>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O22" s="1" t="inlineStr">
         <is>
@@ -9621,8 +9947,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U22" t="b">
-        <v>1</v>
+      <c r="U22" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
@@ -9687,8 +10015,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M23" t="b">
-        <v>0</v>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O23" s="1" t="inlineStr">
         <is>
@@ -9720,8 +10050,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U23" t="b">
-        <v>1</v>
+      <c r="U23" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
@@ -9786,8 +10118,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M24" t="b">
-        <v>0</v>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O24" s="1" t="inlineStr">
         <is>
@@ -9819,8 +10153,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U24" t="b">
-        <v>0</v>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
@@ -9885,8 +10221,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M25" t="b">
-        <v>0</v>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O25" s="1" t="inlineStr">
         <is>
@@ -9918,8 +10256,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U25" t="b">
-        <v>1</v>
+      <c r="U25" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
@@ -9984,8 +10324,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M26" t="b">
-        <v>0</v>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O26" s="1" t="inlineStr">
         <is>
@@ -10017,8 +10359,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U26" t="b">
-        <v>1</v>
+      <c r="U26" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
@@ -10083,8 +10427,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M27" t="b">
-        <v>0</v>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O27" s="1" t="inlineStr">
         <is>
@@ -10116,8 +10462,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U27" t="b">
-        <v>0</v>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
@@ -10182,8 +10530,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M28" t="b">
-        <v>0</v>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O28" s="1" t="inlineStr">
         <is>
@@ -10215,8 +10565,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U28" t="b">
-        <v>0</v>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
@@ -10281,8 +10633,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M29" t="b">
-        <v>0</v>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O29" s="1" t="inlineStr">
         <is>
@@ -10314,8 +10668,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U29" t="b">
-        <v>0</v>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
@@ -10380,8 +10736,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M30" t="b">
-        <v>0</v>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O30" s="1" t="inlineStr">
         <is>
@@ -10413,8 +10771,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U30" t="b">
-        <v>0</v>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
@@ -10479,8 +10839,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M31" t="b">
-        <v>0</v>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O31" s="1" t="inlineStr">
         <is>
@@ -10512,8 +10874,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U31" t="b">
-        <v>0</v>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
@@ -10578,8 +10942,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M32" t="b">
-        <v>0</v>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O32" s="1" t="inlineStr">
         <is>
@@ -10611,8 +10977,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U32" t="b">
-        <v>1</v>
+      <c r="U32" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V32" t="inlineStr">
         <is>
@@ -10677,8 +11045,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M33" t="b">
-        <v>0</v>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O33" s="1" t="inlineStr">
         <is>
@@ -10710,8 +11080,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U33" t="b">
-        <v>0</v>
+      <c r="U33" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V33" t="inlineStr">
         <is>
@@ -10776,8 +11148,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M34" t="b">
-        <v>0</v>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O34" s="1" t="inlineStr">
         <is>
@@ -10809,8 +11183,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U34" t="b">
-        <v>0</v>
+      <c r="U34" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V34" t="inlineStr">
         <is>
@@ -10875,8 +11251,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M35" t="b">
-        <v>0</v>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O35" s="1" t="inlineStr">
         <is>
@@ -10908,8 +11286,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U35" t="b">
-        <v>0</v>
+      <c r="U35" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V35" t="inlineStr">
         <is>
@@ -10974,8 +11354,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M36" t="b">
-        <v>0</v>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O36" s="1" t="inlineStr">
         <is>
@@ -11007,8 +11389,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U36" t="b">
-        <v>0</v>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V36" t="inlineStr">
         <is>
@@ -11073,8 +11457,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M37" t="b">
-        <v>0</v>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O37" s="1" t="inlineStr">
         <is>
@@ -11106,8 +11492,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U37" t="b">
-        <v>0</v>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V37" t="inlineStr">
         <is>
@@ -11172,8 +11560,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M38" t="b">
-        <v>0</v>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O38" s="1" t="inlineStr">
         <is>
@@ -11205,8 +11595,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U38" t="b">
-        <v>0</v>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V38" t="inlineStr">
         <is>
@@ -11271,8 +11663,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M39" t="b">
-        <v>0</v>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O39" s="1" t="inlineStr">
         <is>
@@ -11304,8 +11698,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U39" t="b">
-        <v>0</v>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
@@ -11370,8 +11766,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M40" t="b">
-        <v>0</v>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O40" s="1" t="inlineStr">
         <is>
@@ -11403,8 +11801,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U40" t="b">
-        <v>0</v>
+      <c r="U40" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V40" t="inlineStr">
         <is>
@@ -11469,8 +11869,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M41" t="b">
-        <v>0</v>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O41" s="1" t="inlineStr">
         <is>
@@ -11502,8 +11904,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U41" t="b">
-        <v>0</v>
+      <c r="U41" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V41" t="inlineStr">
         <is>
@@ -11568,8 +11972,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M42" t="b">
-        <v>0</v>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O42" s="1" t="inlineStr">
         <is>
@@ -11601,8 +12007,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U42" t="b">
-        <v>0</v>
+      <c r="U42" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
@@ -11667,8 +12075,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M43" t="b">
-        <v>0</v>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O43" s="1" t="inlineStr">
         <is>
@@ -11700,8 +12110,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U43" t="b">
-        <v>0</v>
+      <c r="U43" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
@@ -11766,8 +12178,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M44" t="b">
-        <v>0</v>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O44" s="1" t="inlineStr">
         <is>
@@ -11799,8 +12213,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U44" t="b">
-        <v>1</v>
+      <c r="U44" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
@@ -11865,8 +12281,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M45" t="b">
-        <v>0</v>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O45" s="1" t="inlineStr">
         <is>
@@ -11898,8 +12316,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U45" t="b">
-        <v>0</v>
+      <c r="U45" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
@@ -11964,8 +12384,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M46" t="b">
-        <v>0</v>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O46" s="1" t="inlineStr">
         <is>
@@ -11997,8 +12419,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U46" t="b">
-        <v>0</v>
+      <c r="U46" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V46" t="inlineStr">
         <is>
@@ -12063,8 +12487,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M47" t="b">
-        <v>0</v>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O47" s="1" t="inlineStr">
         <is>
@@ -12096,8 +12522,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U47" t="b">
-        <v>0</v>
+      <c r="U47" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V47" t="inlineStr">
         <is>
@@ -12162,8 +12590,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M48" t="b">
-        <v>0</v>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O48" s="1" t="inlineStr">
         <is>
@@ -12195,8 +12625,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U48" t="b">
-        <v>1</v>
+      <c r="U48" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
@@ -12261,8 +12693,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M49" t="b">
-        <v>0</v>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O49" s="1" t="inlineStr">
         <is>
@@ -12294,8 +12728,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U49" t="b">
-        <v>0</v>
+      <c r="U49" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V49" t="inlineStr">
         <is>
@@ -12360,8 +12796,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M50" t="b">
-        <v>0</v>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O50" s="1" t="inlineStr">
         <is>
@@ -12393,8 +12831,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U50" t="b">
-        <v>0</v>
+      <c r="U50" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V50" t="inlineStr">
         <is>
@@ -12459,8 +12899,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M51" t="b">
-        <v>0</v>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O51" s="1" t="inlineStr">
         <is>
@@ -12492,8 +12934,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U51" t="b">
-        <v>0</v>
+      <c r="U51" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V51" t="inlineStr">
         <is>
@@ -12558,8 +13002,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M52" t="b">
-        <v>0</v>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O52" s="1" t="inlineStr">
         <is>
@@ -12591,8 +13037,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U52" t="b">
-        <v>0</v>
+      <c r="U52" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V52" t="inlineStr">
         <is>
@@ -12657,8 +13105,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M53" t="b">
-        <v>0</v>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O53" s="1" t="inlineStr">
         <is>
@@ -12690,8 +13140,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U53" t="b">
-        <v>0</v>
+      <c r="U53" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V53" t="inlineStr">
         <is>
@@ -12756,8 +13208,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M54" t="b">
-        <v>0</v>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O54" s="1" t="inlineStr">
         <is>
@@ -12789,8 +13243,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U54" t="b">
-        <v>1</v>
+      <c r="U54" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V54" t="inlineStr">
         <is>
@@ -12855,8 +13311,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M55" t="b">
-        <v>0</v>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O55" s="1" t="inlineStr">
         <is>
@@ -12888,8 +13346,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U55" t="b">
-        <v>1</v>
+      <c r="U55" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V55" t="inlineStr">
         <is>
@@ -12954,8 +13414,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M56" t="b">
-        <v>0</v>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O56" s="1" t="inlineStr">
         <is>
@@ -12987,8 +13449,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U56" t="b">
-        <v>0</v>
+      <c r="U56" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V56" t="inlineStr">
         <is>
@@ -13053,8 +13517,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M57" t="b">
-        <v>0</v>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O57" s="1" t="inlineStr">
         <is>
@@ -13086,8 +13552,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U57" t="b">
-        <v>0</v>
+      <c r="U57" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V57" t="inlineStr">
         <is>
@@ -13421,8 +13889,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>0</v>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -13454,8 +13924,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>1</v>
+      <c r="U2" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -13520,8 +13992,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M3" t="b">
-        <v>0</v>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -13553,8 +14027,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U3" t="b">
-        <v>1</v>
+      <c r="U3" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -13780,8 +14256,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>0</v>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -13813,8 +14291,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>1</v>
+      <c r="U2" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -13879,8 +14359,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M3" t="b">
-        <v>0</v>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -13912,8 +14394,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U3" t="b">
-        <v>1</v>
+      <c r="U3" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -13978,8 +14462,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M4" t="b">
-        <v>0</v>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -14011,8 +14497,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U4" t="b">
-        <v>1</v>
+      <c r="U4" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -14077,8 +14565,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M5" t="b">
-        <v>0</v>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -14110,8 +14600,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U5" t="b">
-        <v>1</v>
+      <c r="U5" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -14341,8 +14833,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>0</v>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -14374,8 +14868,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>0</v>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -14440,8 +14936,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M3" t="b">
-        <v>1</v>
+      <c r="M3" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="N3" t="n">
         <v>303490</v>
@@ -14476,8 +14974,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U3" t="b">
-        <v>0</v>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -14542,8 +15042,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M4" t="b">
-        <v>0</v>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -14575,8 +15077,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U4" t="b">
-        <v>0</v>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -14641,8 +15145,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M5" t="b">
-        <v>1</v>
+      <c r="M5" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="N5" t="n">
         <v>303490</v>
@@ -14677,8 +15183,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U5" t="b">
-        <v>0</v>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -14743,8 +15251,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M6" t="b">
-        <v>0</v>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -14776,8 +15286,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U6" t="b">
-        <v>0</v>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
@@ -15009,8 +15521,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>0</v>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -15042,8 +15556,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>1</v>
+      <c r="U2" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -15108,8 +15624,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M3" t="b">
-        <v>0</v>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -15141,8 +15659,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U3" t="b">
-        <v>0</v>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -15207,8 +15727,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M4" t="b">
-        <v>0</v>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -15240,8 +15762,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U4" t="b">
-        <v>0</v>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -15306,8 +15830,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M5" t="b">
-        <v>0</v>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -15339,8 +15865,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U5" t="b">
-        <v>0</v>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -15405,8 +15933,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M6" t="b">
-        <v>0</v>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -15438,8 +15968,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U6" t="b">
-        <v>0</v>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
@@ -15504,8 +16036,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M7" t="b">
-        <v>0</v>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -15537,8 +16071,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U7" t="b">
-        <v>0</v>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
@@ -15603,8 +16139,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M8" t="b">
-        <v>0</v>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -15636,8 +16174,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U8" t="b">
-        <v>0</v>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
@@ -15702,8 +16242,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M9" t="b">
-        <v>0</v>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -15735,8 +16277,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U9" t="b">
-        <v>0</v>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
@@ -15974,8 +16518,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>0</v>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O2" s="1" t="inlineStr">
         <is>
@@ -16007,8 +16553,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>0</v>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -16073,8 +16621,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M3" t="b">
-        <v>0</v>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O3" s="1" t="inlineStr">
         <is>
@@ -16106,8 +16656,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U3" t="b">
-        <v>0</v>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -16172,8 +16724,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M4" t="b">
-        <v>0</v>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -16205,8 +16759,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U4" t="b">
-        <v>0</v>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -16271,8 +16827,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M5" t="b">
-        <v>0</v>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -16304,8 +16862,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U5" t="b">
-        <v>0</v>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -16370,8 +16930,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M6" t="b">
-        <v>0</v>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -16403,8 +16965,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U6" t="b">
-        <v>0</v>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
@@ -16469,8 +17033,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M7" t="b">
-        <v>0</v>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -16502,8 +17068,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U7" t="b">
-        <v>0</v>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
@@ -16568,8 +17136,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M8" t="b">
-        <v>0</v>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -16601,8 +17171,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U8" t="b">
-        <v>0</v>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
@@ -16667,8 +17239,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M9" t="b">
-        <v>0</v>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -16700,8 +17274,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U9" t="b">
-        <v>0</v>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
@@ -16766,8 +17342,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M10" t="b">
-        <v>0</v>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -16799,8 +17377,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U10" t="b">
-        <v>0</v>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
@@ -16865,8 +17445,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M11" t="b">
-        <v>0</v>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -16898,8 +17480,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U11" t="b">
-        <v>0</v>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
@@ -16964,8 +17548,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M12" t="b">
-        <v>0</v>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -16997,8 +17583,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U12" t="b">
-        <v>0</v>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
@@ -17063,8 +17651,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M13" t="b">
-        <v>0</v>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -17096,8 +17686,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U13" t="b">
-        <v>0</v>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
@@ -17162,8 +17754,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M14" t="b">
-        <v>0</v>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -17195,8 +17789,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U14" t="b">
-        <v>0</v>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
@@ -17261,8 +17857,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M15" t="b">
-        <v>0</v>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -17294,8 +17892,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U15" t="b">
-        <v>0</v>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
@@ -17360,8 +17960,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M16" t="b">
-        <v>0</v>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -17393,8 +17995,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U16" t="b">
-        <v>0</v>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
@@ -17459,8 +18063,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M17" t="b">
-        <v>0</v>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -17492,8 +18098,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U17" t="b">
-        <v>0</v>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
@@ -17558,8 +18166,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M18" t="b">
-        <v>0</v>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -17591,8 +18201,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U18" t="b">
-        <v>0</v>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
@@ -17657,8 +18269,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M19" t="b">
-        <v>0</v>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -17690,8 +18304,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U19" t="b">
-        <v>0</v>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
@@ -17756,8 +18372,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M20" t="b">
-        <v>0</v>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -17789,8 +18407,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U20" t="b">
-        <v>0</v>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
@@ -17855,8 +18475,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M21" t="b">
-        <v>0</v>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -17888,8 +18510,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U21" t="b">
-        <v>0</v>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
@@ -17954,8 +18578,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M22" t="b">
-        <v>0</v>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -17987,8 +18613,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U22" t="b">
-        <v>0</v>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
@@ -18053,8 +18681,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M23" t="b">
-        <v>0</v>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -18086,8 +18716,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U23" t="b">
-        <v>0</v>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
@@ -18152,8 +18784,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M24" t="b">
-        <v>0</v>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -18185,8 +18819,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U24" t="b">
-        <v>0</v>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
@@ -18251,8 +18887,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M25" t="b">
-        <v>0</v>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -18284,8 +18922,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U25" t="b">
-        <v>0</v>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
@@ -18350,8 +18990,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M26" t="b">
-        <v>0</v>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -18383,8 +19025,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U26" t="b">
-        <v>0</v>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
@@ -18449,8 +19093,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M27" t="b">
-        <v>0</v>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -18482,8 +19128,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U27" t="b">
-        <v>0</v>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
@@ -18548,8 +19196,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M28" t="b">
-        <v>0</v>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -18581,8 +19231,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U28" t="b">
-        <v>0</v>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
@@ -18647,8 +19299,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M29" t="b">
-        <v>0</v>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -18680,8 +19334,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U29" t="b">
-        <v>0</v>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
@@ -18746,8 +19402,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M30" t="b">
-        <v>0</v>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -18779,8 +19437,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U30" t="b">
-        <v>0</v>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
@@ -18845,8 +19505,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M31" t="b">
-        <v>0</v>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -18878,8 +19540,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U31" t="b">
-        <v>0</v>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
@@ -18944,8 +19608,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M32" t="b">
-        <v>0</v>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -18977,8 +19643,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U32" t="b">
-        <v>0</v>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V32" t="inlineStr">
         <is>
@@ -19043,8 +19711,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M33" t="b">
-        <v>0</v>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -19076,8 +19746,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U33" t="b">
-        <v>0</v>
+      <c r="U33" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V33" t="inlineStr">
         <is>
@@ -19142,8 +19814,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M34" t="b">
-        <v>0</v>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -19175,8 +19849,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U34" t="b">
-        <v>0</v>
+      <c r="U34" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V34" t="inlineStr">
         <is>
@@ -19241,8 +19917,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M35" t="b">
-        <v>0</v>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -19274,8 +19952,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U35" t="b">
-        <v>0</v>
+      <c r="U35" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V35" t="inlineStr">
         <is>
@@ -19340,8 +20020,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M36" t="b">
-        <v>0</v>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O36" s="1" t="inlineStr">
         <is>
@@ -19373,8 +20055,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U36" t="b">
-        <v>0</v>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V36" t="inlineStr">
         <is>
@@ -19439,8 +20123,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M37" t="b">
-        <v>0</v>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O37" s="1" t="inlineStr">
         <is>
@@ -19472,8 +20158,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U37" t="b">
-        <v>0</v>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V37" t="inlineStr">
         <is>
@@ -19538,8 +20226,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M38" t="b">
-        <v>0</v>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O38" s="1" t="inlineStr">
         <is>
@@ -19571,8 +20261,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U38" t="b">
-        <v>0</v>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V38" t="inlineStr">
         <is>
@@ -19637,8 +20329,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M39" t="b">
-        <v>0</v>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O39" t="inlineStr">
         <is>
@@ -19670,8 +20364,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U39" t="b">
-        <v>1</v>
+      <c r="U39" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
@@ -19736,8 +20432,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M40" t="b">
-        <v>0</v>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O40" t="inlineStr">
         <is>
@@ -19769,8 +20467,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U40" t="b">
-        <v>1</v>
+      <c r="U40" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V40" t="inlineStr">
         <is>
@@ -19835,8 +20535,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M41" t="b">
-        <v>0</v>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O41" t="inlineStr">
         <is>
@@ -19868,8 +20570,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U41" t="b">
-        <v>1</v>
+      <c r="U41" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V41" t="inlineStr">
         <is>
@@ -19934,8 +20638,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M42" t="b">
-        <v>0</v>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O42" t="inlineStr">
         <is>
@@ -19967,8 +20673,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U42" t="b">
-        <v>1</v>
+      <c r="U42" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
@@ -20033,8 +20741,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M43" t="b">
-        <v>0</v>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O43" t="inlineStr">
         <is>
@@ -20066,8 +20776,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U43" t="b">
-        <v>1</v>
+      <c r="U43" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
@@ -20132,8 +20844,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M44" t="b">
-        <v>0</v>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O44" t="inlineStr">
         <is>
@@ -20165,8 +20879,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U44" t="b">
-        <v>1</v>
+      <c r="U44" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
@@ -20231,8 +20947,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M45" t="b">
-        <v>0</v>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O45" t="inlineStr">
         <is>
@@ -20264,8 +20982,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U45" t="b">
-        <v>0</v>
+      <c r="U45" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
@@ -20330,8 +21050,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M46" t="b">
-        <v>0</v>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O46" t="inlineStr">
         <is>
@@ -20363,8 +21085,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U46" t="b">
-        <v>0</v>
+      <c r="U46" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V46" t="inlineStr">
         <is>
@@ -20429,8 +21153,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M47" t="b">
-        <v>0</v>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O47" t="inlineStr">
         <is>
@@ -20462,8 +21188,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U47" t="b">
-        <v>0</v>
+      <c r="U47" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V47" t="inlineStr">
         <is>
@@ -20528,8 +21256,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M48" t="b">
-        <v>0</v>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O48" t="inlineStr">
         <is>
@@ -20561,8 +21291,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U48" t="b">
-        <v>0</v>
+      <c r="U48" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
@@ -20627,8 +21359,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M49" t="b">
-        <v>0</v>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O49" t="inlineStr">
         <is>
@@ -20660,8 +21394,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U49" t="b">
-        <v>0</v>
+      <c r="U49" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V49" t="inlineStr">
         <is>
@@ -20726,8 +21462,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M50" t="b">
-        <v>0</v>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O50" t="inlineStr">
         <is>
@@ -20759,8 +21497,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U50" t="b">
-        <v>0</v>
+      <c r="U50" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V50" t="inlineStr">
         <is>
@@ -20825,8 +21565,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M51" t="b">
-        <v>0</v>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O51" s="1" t="inlineStr">
         <is>
@@ -20858,8 +21600,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U51" t="b">
-        <v>0</v>
+      <c r="U51" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V51" t="inlineStr">
         <is>
@@ -20924,8 +21668,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M52" t="b">
-        <v>0</v>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O52" s="1" t="inlineStr">
         <is>
@@ -20957,8 +21703,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U52" t="b">
-        <v>0</v>
+      <c r="U52" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V52" t="inlineStr">
         <is>
@@ -21023,8 +21771,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M53" t="b">
-        <v>0</v>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O53" s="1" t="inlineStr">
         <is>
@@ -21056,8 +21806,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U53" t="b">
-        <v>0</v>
+      <c r="U53" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V53" t="inlineStr">
         <is>
@@ -21122,8 +21874,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M54" t="b">
-        <v>0</v>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O54" s="1" t="inlineStr">
         <is>
@@ -21155,8 +21909,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U54" t="b">
-        <v>0</v>
+      <c r="U54" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V54" t="inlineStr">
         <is>
@@ -21221,8 +21977,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M55" t="b">
-        <v>0</v>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O55" s="1" t="inlineStr">
         <is>
@@ -21254,8 +22012,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U55" t="b">
-        <v>0</v>
+      <c r="U55" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V55" t="inlineStr">
         <is>
@@ -21320,8 +22080,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M56" t="b">
-        <v>0</v>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O56" s="1" t="inlineStr">
         <is>
@@ -21353,8 +22115,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U56" t="b">
-        <v>0</v>
+      <c r="U56" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V56" t="inlineStr">
         <is>
@@ -21419,8 +22183,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M57" t="b">
-        <v>0</v>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O57" s="1" t="inlineStr">
         <is>
@@ -21452,8 +22218,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U57" t="b">
-        <v>0</v>
+      <c r="U57" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V57" t="inlineStr">
         <is>
@@ -21518,8 +22286,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M58" t="b">
-        <v>0</v>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O58" s="1" t="inlineStr">
         <is>
@@ -21551,8 +22321,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U58" t="b">
-        <v>0</v>
+      <c r="U58" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V58" t="inlineStr">
         <is>
@@ -21617,8 +22389,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M59" t="b">
-        <v>0</v>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O59" s="1" t="inlineStr">
         <is>
@@ -21650,8 +22424,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U59" t="b">
-        <v>0</v>
+      <c r="U59" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V59" t="inlineStr">
         <is>
@@ -21716,8 +22492,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M60" t="b">
-        <v>0</v>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O60" s="1" t="inlineStr">
         <is>
@@ -21749,8 +22527,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U60" t="b">
-        <v>0</v>
+      <c r="U60" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V60" t="inlineStr">
         <is>
@@ -22090,8 +22870,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>1</v>
+      <c r="M2" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="N2" t="n">
         <v>303490</v>
@@ -22126,8 +22908,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>0</v>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -22192,8 +22976,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M3" t="b">
-        <v>1</v>
+      <c r="M3" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="N3" t="n">
         <v>303490</v>
@@ -22228,8 +23014,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U3" t="b">
-        <v>0</v>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -22294,8 +23082,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M4" t="b">
-        <v>0</v>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O4" s="1" t="inlineStr">
         <is>
@@ -22327,8 +23117,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U4" t="b">
-        <v>0</v>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -22393,8 +23185,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M5" t="b">
-        <v>0</v>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O5" s="1" t="inlineStr">
         <is>
@@ -22426,8 +23220,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U5" t="b">
-        <v>0</v>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -22492,8 +23288,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M6" t="b">
-        <v>0</v>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O6" s="1" t="inlineStr">
         <is>
@@ -22525,8 +23323,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U6" t="b">
-        <v>0</v>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
@@ -22591,8 +23391,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M7" t="b">
-        <v>0</v>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -22624,8 +23426,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U7" t="b">
-        <v>0</v>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
@@ -22690,8 +23494,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M8" t="b">
-        <v>0</v>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -22723,8 +23529,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U8" t="b">
-        <v>0</v>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
@@ -22789,8 +23597,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M9" t="b">
-        <v>0</v>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -22822,8 +23632,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U9" t="b">
-        <v>0</v>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
@@ -22888,8 +23700,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M10" t="b">
-        <v>0</v>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -22921,8 +23735,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U10" t="b">
-        <v>0</v>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
@@ -22987,8 +23803,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M11" t="b">
-        <v>0</v>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -23020,8 +23838,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U11" t="b">
-        <v>0</v>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
@@ -23086,8 +23906,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M12" t="b">
-        <v>0</v>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -23119,8 +23941,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U12" t="b">
-        <v>0</v>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
@@ -23185,8 +24009,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M13" t="b">
-        <v>0</v>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -23218,8 +24044,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U13" t="b">
-        <v>0</v>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
@@ -23284,8 +24112,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M14" t="b">
-        <v>0</v>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -23317,8 +24147,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U14" t="b">
-        <v>0</v>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
@@ -23383,8 +24215,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M15" t="b">
-        <v>0</v>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -23416,8 +24250,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U15" t="b">
-        <v>0</v>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
@@ -23482,8 +24318,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M16" t="b">
-        <v>0</v>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -23515,8 +24353,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U16" t="b">
-        <v>0</v>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
@@ -23581,8 +24421,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M17" t="b">
-        <v>0</v>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -23614,8 +24456,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U17" t="b">
-        <v>0</v>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
@@ -23680,8 +24524,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M18" t="b">
-        <v>0</v>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O18" s="1" t="inlineStr">
         <is>
@@ -23713,8 +24559,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U18" t="b">
-        <v>0</v>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
@@ -23779,8 +24627,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M19" t="b">
-        <v>0</v>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O19" s="1" t="inlineStr">
         <is>
@@ -23812,8 +24662,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U19" t="b">
-        <v>0</v>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
@@ -23878,8 +24730,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M20" t="b">
-        <v>0</v>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O20" s="1" t="inlineStr">
         <is>
@@ -23911,8 +24765,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U20" t="b">
-        <v>1</v>
+      <c r="U20" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
@@ -23977,8 +24833,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M21" t="b">
-        <v>0</v>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O21" s="1" t="inlineStr">
         <is>
@@ -24010,8 +24868,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U21" t="b">
-        <v>0</v>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
@@ -24076,8 +24936,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M22" t="b">
-        <v>0</v>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O22" s="1" t="inlineStr">
         <is>
@@ -24109,8 +24971,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U22" t="b">
-        <v>1</v>
+      <c r="U22" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
@@ -24175,8 +25039,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M23" t="b">
-        <v>0</v>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -24208,8 +25074,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U23" t="b">
-        <v>1</v>
+      <c r="U23" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
@@ -24274,8 +25142,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M24" t="b">
-        <v>0</v>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -24307,8 +25177,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U24" t="b">
-        <v>0</v>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
@@ -24373,8 +25245,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M25" t="b">
-        <v>0</v>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -24406,8 +25280,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U25" t="b">
-        <v>0</v>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
@@ -24472,8 +25348,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M26" t="b">
-        <v>0</v>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -24505,8 +25383,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U26" t="b">
-        <v>0</v>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
@@ -24571,8 +25451,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M27" t="b">
-        <v>0</v>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O27" s="1" t="inlineStr">
         <is>
@@ -24604,8 +25486,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U27" t="b">
-        <v>1</v>
+      <c r="U27" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
@@ -24670,8 +25554,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M28" t="b">
-        <v>0</v>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O28" s="1" t="inlineStr">
         <is>
@@ -24703,8 +25589,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U28" t="b">
-        <v>0</v>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
@@ -24769,8 +25657,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M29" t="b">
-        <v>0</v>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O29" s="1" t="inlineStr">
         <is>
@@ -24802,8 +25692,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U29" t="b">
-        <v>1</v>
+      <c r="U29" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
@@ -24868,8 +25760,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M30" t="b">
-        <v>0</v>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O30" s="1" t="inlineStr">
         <is>
@@ -24901,8 +25795,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U30" t="b">
-        <v>1</v>
+      <c r="U30" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
@@ -24967,8 +25863,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M31" t="b">
-        <v>0</v>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O31" s="1" t="inlineStr">
         <is>
@@ -25000,8 +25898,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U31" t="b">
-        <v>0</v>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
@@ -25066,8 +25966,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M32" t="b">
-        <v>0</v>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O32" s="1" t="inlineStr">
         <is>
@@ -25099,8 +26001,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U32" t="b">
-        <v>1</v>
+      <c r="U32" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V32" t="inlineStr">
         <is>
@@ -25165,8 +26069,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M33" t="b">
-        <v>0</v>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O33" s="1" t="inlineStr">
         <is>
@@ -25198,8 +26104,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U33" t="b">
-        <v>1</v>
+      <c r="U33" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V33" t="inlineStr">
         <is>
@@ -25264,8 +26172,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M34" t="b">
-        <v>0</v>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O34" s="1" t="inlineStr">
         <is>
@@ -25297,8 +26207,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U34" t="b">
-        <v>0</v>
+      <c r="U34" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V34" t="inlineStr">
         <is>
@@ -25363,8 +26275,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M35" t="b">
-        <v>0</v>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O35" s="1" t="inlineStr">
         <is>
@@ -25396,8 +26310,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U35" t="b">
-        <v>0</v>
+      <c r="U35" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V35" t="inlineStr">
         <is>
@@ -25462,8 +26378,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M36" t="b">
-        <v>0</v>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O36" s="1" t="inlineStr">
         <is>
@@ -25495,8 +26413,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U36" t="b">
-        <v>0</v>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V36" t="inlineStr">
         <is>
@@ -25561,8 +26481,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M37" t="b">
-        <v>0</v>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O37" s="1" t="inlineStr">
         <is>
@@ -25594,8 +26516,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U37" t="b">
-        <v>0</v>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V37" t="inlineStr">
         <is>
@@ -25660,8 +26584,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M38" t="b">
-        <v>0</v>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O38" s="1" t="inlineStr">
         <is>
@@ -25693,8 +26619,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U38" t="b">
-        <v>0</v>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V38" t="inlineStr">
         <is>
@@ -25759,8 +26687,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M39" t="b">
-        <v>0</v>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O39" s="1" t="inlineStr">
         <is>
@@ -25792,8 +26722,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U39" t="b">
-        <v>1</v>
+      <c r="U39" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
@@ -25858,8 +26790,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M40" t="b">
-        <v>0</v>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O40" s="1" t="inlineStr">
         <is>
@@ -25891,8 +26825,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U40" t="b">
-        <v>0</v>
+      <c r="U40" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V40" t="inlineStr">
         <is>
@@ -25957,8 +26893,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M41" t="b">
-        <v>0</v>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O41" s="1" t="inlineStr">
         <is>
@@ -25990,8 +26928,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U41" t="b">
-        <v>0</v>
+      <c r="U41" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V41" t="inlineStr">
         <is>
@@ -26056,8 +26996,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M42" t="b">
-        <v>0</v>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O42" s="1" t="inlineStr">
         <is>
@@ -26089,8 +27031,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U42" t="b">
-        <v>0</v>
+      <c r="U42" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
@@ -26155,8 +27099,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M43" t="b">
-        <v>0</v>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O43" s="1" t="inlineStr">
         <is>
@@ -26188,8 +27134,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U43" t="b">
-        <v>0</v>
+      <c r="U43" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
@@ -26254,8 +27202,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M44" t="b">
-        <v>0</v>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O44" s="1" t="inlineStr">
         <is>
@@ -26287,8 +27237,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U44" t="b">
-        <v>0</v>
+      <c r="U44" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
@@ -26353,8 +27305,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M45" t="b">
-        <v>0</v>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O45" s="1" t="inlineStr">
         <is>
@@ -26386,8 +27340,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U45" t="b">
-        <v>0</v>
+      <c r="U45" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
@@ -26452,8 +27408,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M46" t="b">
-        <v>0</v>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O46" s="1" t="inlineStr">
         <is>
@@ -26485,8 +27443,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U46" t="b">
-        <v>0</v>
+      <c r="U46" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V46" t="inlineStr">
         <is>
@@ -26551,8 +27511,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M47" t="b">
-        <v>0</v>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O47" s="1" t="inlineStr">
         <is>
@@ -26584,8 +27546,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U47" t="b">
-        <v>0</v>
+      <c r="U47" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V47" t="inlineStr">
         <is>
@@ -26650,8 +27614,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M48" t="b">
-        <v>0</v>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O48" s="1" t="inlineStr">
         <is>
@@ -26683,8 +27649,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U48" t="b">
-        <v>0</v>
+      <c r="U48" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
@@ -26749,8 +27717,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M49" t="b">
-        <v>0</v>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O49" s="1" t="inlineStr">
         <is>
@@ -26782,8 +27752,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U49" t="b">
-        <v>0</v>
+      <c r="U49" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V49" t="inlineStr">
         <is>
@@ -26848,8 +27820,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M50" t="b">
-        <v>0</v>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O50" s="1" t="inlineStr">
         <is>
@@ -26881,8 +27855,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U50" t="b">
-        <v>0</v>
+      <c r="U50" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V50" t="inlineStr">
         <is>
@@ -26947,8 +27923,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M51" t="b">
-        <v>0</v>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O51" s="1" t="inlineStr">
         <is>
@@ -26980,8 +27958,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U51" t="b">
-        <v>1</v>
+      <c r="U51" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V51" t="inlineStr">
         <is>
@@ -27046,8 +28026,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M52" t="b">
-        <v>0</v>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O52" s="1" t="inlineStr">
         <is>
@@ -27079,8 +28061,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U52" t="b">
-        <v>0</v>
+      <c r="U52" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V52" t="inlineStr">
         <is>
@@ -27145,8 +28129,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M53" t="b">
-        <v>0</v>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O53" s="1" t="inlineStr">
         <is>
@@ -27178,8 +28164,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U53" t="b">
-        <v>0</v>
+      <c r="U53" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V53" t="inlineStr">
         <is>
@@ -27244,8 +28232,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M54" t="b">
-        <v>0</v>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O54" s="1" t="inlineStr">
         <is>
@@ -27277,8 +28267,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U54" t="b">
-        <v>0</v>
+      <c r="U54" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V54" t="inlineStr">
         <is>
@@ -27343,8 +28335,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M55" t="b">
-        <v>0</v>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O55" s="1" t="inlineStr">
         <is>
@@ -27376,8 +28370,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U55" t="b">
-        <v>1</v>
+      <c r="U55" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V55" t="inlineStr">
         <is>
@@ -27442,8 +28438,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M56" t="b">
-        <v>0</v>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O56" s="1" t="inlineStr">
         <is>
@@ -27475,8 +28473,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U56" t="b">
-        <v>0</v>
+      <c r="U56" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V56" t="inlineStr">
         <is>
@@ -27541,8 +28541,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M57" t="b">
-        <v>0</v>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O57" s="1" t="inlineStr">
         <is>
@@ -27574,8 +28576,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U57" t="b">
-        <v>0</v>
+      <c r="U57" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V57" t="inlineStr">
         <is>
@@ -27640,8 +28644,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M58" t="b">
-        <v>0</v>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O58" s="1" t="inlineStr">
         <is>
@@ -27673,8 +28679,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U58" t="b">
-        <v>0</v>
+      <c r="U58" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V58" t="inlineStr">
         <is>
@@ -27739,8 +28747,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M59" t="b">
-        <v>0</v>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O59" s="1" t="inlineStr">
         <is>
@@ -27772,8 +28782,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U59" t="b">
-        <v>0</v>
+      <c r="U59" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V59" t="inlineStr">
         <is>
@@ -27838,8 +28850,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M60" t="b">
-        <v>0</v>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O60" s="1" t="inlineStr">
         <is>
@@ -27871,8 +28885,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U60" t="b">
-        <v>0</v>
+      <c r="U60" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V60" t="inlineStr">
         <is>
@@ -27937,8 +28953,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M61" t="b">
-        <v>0</v>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O61" s="1" t="inlineStr">
         <is>
@@ -27970,8 +28988,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U61" t="b">
-        <v>1</v>
+      <c r="U61" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V61" t="inlineStr">
         <is>
@@ -28036,8 +29056,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M62" t="b">
-        <v>0</v>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O62" s="1" t="inlineStr">
         <is>
@@ -28069,8 +29091,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U62" t="b">
-        <v>1</v>
+      <c r="U62" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V62" t="inlineStr">
         <is>
@@ -28135,8 +29159,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M63" t="b">
-        <v>0</v>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O63" s="1" t="inlineStr">
         <is>
@@ -28168,8 +29194,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U63" t="b">
-        <v>0</v>
+      <c r="U63" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V63" t="inlineStr">
         <is>
@@ -28234,8 +29262,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M64" t="b">
-        <v>0</v>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O64" s="1" t="inlineStr">
         <is>
@@ -28267,8 +29297,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U64" t="b">
-        <v>0</v>
+      <c r="U64" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V64" t="inlineStr">
         <is>
@@ -28616,8 +29648,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>0</v>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -28649,8 +29683,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>1</v>
+      <c r="U2" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -28715,8 +29751,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M3" t="b">
-        <v>0</v>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -28748,8 +29786,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U3" t="b">
-        <v>0</v>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -28814,8 +29854,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M4" t="b">
-        <v>0</v>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -28847,8 +29889,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U4" t="b">
-        <v>1</v>
+      <c r="U4" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -28913,8 +29957,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M5" t="b">
-        <v>0</v>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -28946,8 +29992,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U5" t="b">
-        <v>0</v>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -29012,8 +30060,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M6" t="b">
-        <v>0</v>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -29045,8 +30095,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U6" t="b">
-        <v>0</v>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
@@ -29111,8 +30163,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M7" t="b">
-        <v>0</v>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -29144,8 +30198,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U7" t="b">
-        <v>0</v>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
@@ -29210,8 +30266,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M8" t="b">
-        <v>0</v>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -29243,8 +30301,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U8" t="b">
-        <v>0</v>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
@@ -29309,8 +30369,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M9" t="b">
-        <v>0</v>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -29342,8 +30404,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U9" t="b">
-        <v>1</v>
+      <c r="U9" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
@@ -29408,8 +30472,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M10" t="b">
-        <v>0</v>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -29441,8 +30507,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U10" t="b">
-        <v>1</v>
+      <c r="U10" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
@@ -29507,8 +30575,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M11" t="b">
-        <v>0</v>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -29540,8 +30610,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U11" t="b">
-        <v>1</v>
+      <c r="U11" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
@@ -29606,8 +30678,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M12" t="b">
-        <v>0</v>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -29639,8 +30713,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U12" t="b">
-        <v>1</v>
+      <c r="U12" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
@@ -29705,8 +30781,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M13" t="b">
-        <v>0</v>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -29738,8 +30816,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U13" t="b">
-        <v>0</v>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
@@ -29985,8 +31065,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>0</v>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -30018,8 +31100,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>0</v>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -30084,8 +31168,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M3" t="b">
-        <v>0</v>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -30117,8 +31203,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U3" t="b">
-        <v>0</v>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -30344,8 +31432,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>0</v>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -30377,8 +31467,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>1</v>
+      <c r="U2" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -30443,8 +31535,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M3" t="b">
-        <v>0</v>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -30476,8 +31570,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U3" t="b">
-        <v>1</v>
+      <c r="U3" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -30542,8 +31638,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M4" t="b">
-        <v>0</v>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O4" s="1" t="inlineStr">
         <is>
@@ -30575,8 +31673,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U4" t="b">
-        <v>1</v>
+      <c r="U4" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -30641,8 +31741,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M5" t="b">
-        <v>0</v>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O5" s="1" t="inlineStr">
         <is>
@@ -30674,8 +31776,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U5" t="b">
-        <v>1</v>
+      <c r="U5" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -30740,8 +31844,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M6" t="b">
-        <v>0</v>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O6" s="1" t="inlineStr">
         <is>
@@ -30773,8 +31879,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U6" t="b">
-        <v>1</v>
+      <c r="U6" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
@@ -30839,8 +31947,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M7" t="b">
-        <v>0</v>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O7" s="1" t="inlineStr">
         <is>
@@ -30872,8 +31982,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U7" t="b">
-        <v>1</v>
+      <c r="U7" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
@@ -30938,8 +32050,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M8" t="b">
-        <v>0</v>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O8" s="1" t="inlineStr">
         <is>
@@ -30971,8 +32085,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U8" t="b">
-        <v>1</v>
+      <c r="U8" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
@@ -31037,8 +32153,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M9" t="b">
-        <v>0</v>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O9" s="1" t="inlineStr">
         <is>
@@ -31070,8 +32188,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U9" t="b">
-        <v>1</v>
+      <c r="U9" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
@@ -31309,8 +32429,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>0</v>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -31342,8 +32464,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>1</v>
+      <c r="U2" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -31408,8 +32532,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M3" t="b">
-        <v>0</v>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -31441,8 +32567,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U3" t="b">
-        <v>1</v>
+      <c r="U3" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -31507,8 +32635,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M4" t="b">
-        <v>0</v>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -31540,8 +32670,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U4" t="b">
-        <v>1</v>
+      <c r="U4" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -31606,8 +32738,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M5" t="b">
-        <v>0</v>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -31639,8 +32773,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U5" t="b">
-        <v>1</v>
+      <c r="U5" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -31870,8 +33006,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>0</v>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -31903,8 +33041,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>0</v>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -31969,8 +33109,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M3" t="b">
-        <v>0</v>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -32002,8 +33144,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U3" t="b">
-        <v>1</v>
+      <c r="U3" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -32068,8 +33212,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M4" t="b">
-        <v>0</v>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -32101,8 +33247,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U4" t="b">
-        <v>1</v>
+      <c r="U4" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -32167,8 +33315,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M5" t="b">
-        <v>0</v>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -32200,8 +33350,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U5" t="b">
-        <v>0</v>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -32266,8 +33418,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M6" t="b">
-        <v>0</v>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -32299,8 +33453,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U6" t="b">
-        <v>0</v>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
@@ -32532,8 +33688,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>0</v>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -32565,8 +33723,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>1</v>
+      <c r="U2" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -32631,8 +33791,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M3" t="b">
-        <v>0</v>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -32664,8 +33826,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U3" t="b">
-        <v>0</v>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -32730,8 +33894,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M4" t="b">
-        <v>0</v>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -32763,8 +33929,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U4" t="b">
-        <v>0</v>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -32829,8 +33997,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M5" t="b">
-        <v>0</v>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -32862,8 +34032,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U5" t="b">
-        <v>0</v>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -32928,8 +34100,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M6" t="b">
-        <v>0</v>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -32961,8 +34135,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U6" t="b">
-        <v>0</v>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
@@ -33027,8 +34203,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M7" t="b">
-        <v>0</v>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -33060,8 +34238,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U7" t="b">
-        <v>0</v>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
@@ -33126,8 +34306,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M8" t="b">
-        <v>0</v>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -33159,8 +34341,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U8" t="b">
-        <v>0</v>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
@@ -33225,8 +34409,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M9" t="b">
-        <v>0</v>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -33258,8 +34444,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U9" t="b">
-        <v>0</v>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
@@ -33497,8 +34685,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>0</v>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O2" s="1" t="inlineStr">
         <is>
@@ -33530,8 +34720,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>0</v>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -33596,8 +34788,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M3" t="b">
-        <v>0</v>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O3" s="1" t="inlineStr">
         <is>
@@ -33629,8 +34823,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U3" t="b">
-        <v>0</v>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -33695,8 +34891,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M4" t="b">
-        <v>0</v>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -33728,8 +34926,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U4" t="b">
-        <v>0</v>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -33794,8 +34994,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M5" t="b">
-        <v>0</v>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -33827,8 +35029,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U5" t="b">
-        <v>0</v>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -33893,8 +35097,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M6" t="b">
-        <v>0</v>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -33926,8 +35132,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U6" t="b">
-        <v>0</v>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
@@ -33992,8 +35200,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M7" t="b">
-        <v>0</v>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -34025,8 +35235,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U7" t="b">
-        <v>0</v>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
@@ -34091,8 +35303,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M8" t="b">
-        <v>0</v>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -34124,8 +35338,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U8" t="b">
-        <v>0</v>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
@@ -34190,8 +35406,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M9" t="b">
-        <v>0</v>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -34223,8 +35441,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U9" t="b">
-        <v>0</v>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
@@ -34289,8 +35509,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M10" t="b">
-        <v>0</v>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -34322,8 +35544,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U10" t="b">
-        <v>0</v>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
@@ -34388,8 +35612,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M11" t="b">
-        <v>0</v>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -34421,8 +35647,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U11" t="b">
-        <v>0</v>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
@@ -34487,8 +35715,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M12" t="b">
-        <v>0</v>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -34520,8 +35750,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U12" t="b">
-        <v>0</v>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
@@ -34586,8 +35818,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M13" t="b">
-        <v>0</v>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -34619,8 +35853,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U13" t="b">
-        <v>0</v>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
@@ -34685,8 +35921,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M14" t="b">
-        <v>0</v>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -34718,8 +35956,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U14" t="b">
-        <v>0</v>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
@@ -34784,8 +36024,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M15" t="b">
-        <v>0</v>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -34817,8 +36059,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U15" t="b">
-        <v>0</v>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
@@ -34883,8 +36127,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M16" t="b">
-        <v>0</v>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -34916,8 +36162,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U16" t="b">
-        <v>0</v>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
@@ -34982,8 +36230,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M17" t="b">
-        <v>0</v>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -35015,8 +36265,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U17" t="b">
-        <v>0</v>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
@@ -35081,8 +36333,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M18" t="b">
-        <v>0</v>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -35114,8 +36368,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U18" t="b">
-        <v>0</v>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
@@ -35180,8 +36436,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M19" t="b">
-        <v>0</v>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -35213,8 +36471,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U19" t="b">
-        <v>0</v>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
@@ -35279,8 +36539,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M20" t="b">
-        <v>0</v>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -35312,8 +36574,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U20" t="b">
-        <v>0</v>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
@@ -35378,8 +36642,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M21" t="b">
-        <v>0</v>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -35411,8 +36677,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U21" t="b">
-        <v>0</v>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
@@ -35477,8 +36745,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M22" t="b">
-        <v>0</v>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -35510,8 +36780,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U22" t="b">
-        <v>0</v>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
@@ -35576,8 +36848,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M23" t="b">
-        <v>0</v>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -35609,8 +36883,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U23" t="b">
-        <v>0</v>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
@@ -35675,8 +36951,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M24" t="b">
-        <v>0</v>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -35708,8 +36986,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U24" t="b">
-        <v>0</v>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
@@ -35774,8 +37054,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M25" t="b">
-        <v>0</v>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -35807,8 +37089,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U25" t="b">
-        <v>0</v>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
@@ -35873,8 +37157,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M26" t="b">
-        <v>0</v>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -35906,8 +37192,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U26" t="b">
-        <v>0</v>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
@@ -35972,8 +37260,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M27" t="b">
-        <v>0</v>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -36005,8 +37295,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U27" t="b">
-        <v>0</v>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
@@ -36071,8 +37363,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M28" t="b">
-        <v>0</v>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -36104,8 +37398,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U28" t="b">
-        <v>0</v>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
@@ -36170,8 +37466,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M29" t="b">
-        <v>0</v>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O29" s="1" t="inlineStr">
         <is>
@@ -36203,8 +37501,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U29" t="b">
-        <v>0</v>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
@@ -36269,8 +37569,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M30" t="b">
-        <v>0</v>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O30" s="1" t="inlineStr">
         <is>
@@ -36302,8 +37604,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U30" t="b">
-        <v>0</v>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
@@ -36368,8 +37672,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M31" t="b">
-        <v>0</v>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O31" s="1" t="inlineStr">
         <is>
@@ -36401,8 +37707,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U31" t="b">
-        <v>0</v>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
@@ -36467,8 +37775,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M32" t="b">
-        <v>0</v>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -36500,8 +37810,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U32" t="b">
-        <v>0</v>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V32" t="inlineStr">
         <is>
@@ -36566,8 +37878,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M33" t="b">
-        <v>0</v>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -36599,8 +37913,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U33" t="b">
-        <v>0</v>
+      <c r="U33" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V33" t="inlineStr">
         <is>
@@ -36665,8 +37981,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M34" t="b">
-        <v>0</v>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -36698,8 +38016,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U34" t="b">
-        <v>0</v>
+      <c r="U34" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V34" t="inlineStr">
         <is>
@@ -36764,8 +38084,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M35" t="b">
-        <v>0</v>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -36797,8 +38119,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U35" t="b">
-        <v>0</v>
+      <c r="U35" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V35" t="inlineStr">
         <is>
@@ -36863,8 +38187,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M36" t="b">
-        <v>0</v>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O36" t="inlineStr">
         <is>
@@ -36896,8 +38222,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U36" t="b">
-        <v>0</v>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V36" t="inlineStr">
         <is>
@@ -36962,8 +38290,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M37" t="b">
-        <v>0</v>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O37" t="inlineStr">
         <is>
@@ -36995,8 +38325,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U37" t="b">
-        <v>0</v>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V37" t="inlineStr">
         <is>
@@ -37061,8 +38393,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M38" t="b">
-        <v>0</v>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O38" t="inlineStr">
         <is>
@@ -37094,8 +38428,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U38" t="b">
-        <v>0</v>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V38" t="inlineStr">
         <is>
@@ -37160,8 +38496,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M39" t="b">
-        <v>0</v>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O39" t="inlineStr">
         <is>
@@ -37193,8 +38531,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U39" t="b">
-        <v>0</v>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
@@ -37259,8 +38599,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M40" t="b">
-        <v>0</v>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O40" t="inlineStr">
         <is>
@@ -37292,8 +38634,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U40" t="b">
-        <v>0</v>
+      <c r="U40" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V40" t="inlineStr">
         <is>
@@ -37358,8 +38702,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M41" t="b">
-        <v>0</v>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O41" t="inlineStr">
         <is>
@@ -37391,8 +38737,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U41" t="b">
-        <v>0</v>
+      <c r="U41" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V41" t="inlineStr">
         <is>
@@ -37457,8 +38805,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M42" t="b">
-        <v>0</v>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O42" t="inlineStr">
         <is>
@@ -37490,8 +38840,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U42" t="b">
-        <v>0</v>
+      <c r="U42" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
@@ -37556,8 +38908,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M43" t="b">
-        <v>0</v>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O43" t="inlineStr">
         <is>
@@ -37589,8 +38943,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U43" t="b">
-        <v>0</v>
+      <c r="U43" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
@@ -37655,8 +39011,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M44" t="b">
-        <v>0</v>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O44" t="inlineStr">
         <is>
@@ -37688,8 +39046,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U44" t="b">
-        <v>0</v>
+      <c r="U44" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
@@ -37754,8 +39114,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M45" t="b">
-        <v>0</v>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O45" t="inlineStr">
         <is>
@@ -37787,8 +39149,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U45" t="b">
-        <v>0</v>
+      <c r="U45" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
@@ -37853,8 +39217,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M46" t="b">
-        <v>0</v>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O46" t="inlineStr">
         <is>
@@ -37886,8 +39252,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U46" t="b">
-        <v>1</v>
+      <c r="U46" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V46" t="inlineStr">
         <is>
@@ -37952,8 +39320,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M47" t="b">
-        <v>0</v>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O47" t="inlineStr">
         <is>
@@ -37985,8 +39355,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U47" t="b">
-        <v>0</v>
+      <c r="U47" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V47" t="inlineStr">
         <is>
@@ -38051,8 +39423,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M48" t="b">
-        <v>0</v>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O48" t="inlineStr">
         <is>
@@ -38084,8 +39458,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U48" t="b">
-        <v>0</v>
+      <c r="U48" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
@@ -38150,8 +39526,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M49" t="b">
-        <v>0</v>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O49" t="inlineStr">
         <is>
@@ -38183,8 +39561,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U49" t="b">
-        <v>1</v>
+      <c r="U49" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V49" t="inlineStr">
         <is>
@@ -38249,8 +39629,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M50" t="b">
-        <v>0</v>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O50" t="inlineStr">
         <is>
@@ -38282,8 +39664,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U50" t="b">
-        <v>0</v>
+      <c r="U50" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V50" t="inlineStr">
         <is>
@@ -38348,8 +39732,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M51" t="b">
-        <v>0</v>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O51" s="1" t="inlineStr">
         <is>
@@ -38381,8 +39767,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U51" t="b">
-        <v>0</v>
+      <c r="U51" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V51" t="inlineStr">
         <is>
@@ -38447,8 +39835,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M52" t="b">
-        <v>0</v>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O52" s="1" t="inlineStr">
         <is>
@@ -38480,8 +39870,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U52" t="b">
-        <v>0</v>
+      <c r="U52" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V52" t="inlineStr">
         <is>
@@ -38546,8 +39938,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M53" t="b">
-        <v>0</v>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O53" s="1" t="inlineStr">
         <is>
@@ -38579,8 +39973,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U53" t="b">
-        <v>0</v>
+      <c r="U53" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V53" t="inlineStr">
         <is>
@@ -38645,8 +40041,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M54" t="b">
-        <v>0</v>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O54" s="1" t="inlineStr">
         <is>
@@ -38678,8 +40076,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U54" t="b">
-        <v>0</v>
+      <c r="U54" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V54" t="inlineStr">
         <is>
@@ -38744,8 +40144,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M55" t="b">
-        <v>0</v>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O55" s="1" t="inlineStr">
         <is>
@@ -38777,8 +40179,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U55" t="b">
-        <v>0</v>
+      <c r="U55" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V55" t="inlineStr">
         <is>
@@ -38843,8 +40247,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M56" t="b">
-        <v>0</v>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O56" s="1" t="inlineStr">
         <is>
@@ -38876,8 +40282,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U56" t="b">
-        <v>0</v>
+      <c r="U56" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V56" t="inlineStr">
         <is>
@@ -38942,8 +40350,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M57" t="b">
-        <v>0</v>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O57" s="1" t="inlineStr">
         <is>
@@ -38975,8 +40385,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U57" t="b">
-        <v>0</v>
+      <c r="U57" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V57" t="inlineStr">
         <is>
@@ -39041,8 +40453,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M58" t="b">
-        <v>0</v>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O58" s="1" t="inlineStr">
         <is>
@@ -39074,8 +40488,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U58" t="b">
-        <v>0</v>
+      <c r="U58" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V58" t="inlineStr">
         <is>
@@ -39140,8 +40556,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M59" t="b">
-        <v>0</v>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O59" s="1" t="inlineStr">
         <is>
@@ -39173,8 +40591,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U59" t="b">
-        <v>0</v>
+      <c r="U59" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V59" t="inlineStr">
         <is>
@@ -39239,8 +40659,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M60" t="b">
-        <v>0</v>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O60" s="1" t="inlineStr">
         <is>
@@ -39272,8 +40694,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U60" t="b">
-        <v>0</v>
+      <c r="U60" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V60" t="inlineStr">
         <is>
@@ -39613,8 +41037,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>0</v>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -39646,8 +41072,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>1</v>
+      <c r="U2" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -39712,8 +41140,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M3" t="b">
-        <v>0</v>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -39745,8 +41175,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U3" t="b">
-        <v>0</v>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -39811,8 +41243,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M4" t="b">
-        <v>0</v>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -39844,8 +41278,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U4" t="b">
-        <v>1</v>
+      <c r="U4" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -39910,8 +41346,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M5" t="b">
-        <v>0</v>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -39943,8 +41381,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U5" t="b">
-        <v>0</v>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -40009,8 +41449,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M6" t="b">
-        <v>0</v>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -40042,8 +41484,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U6" t="b">
-        <v>0</v>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
@@ -40108,8 +41552,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M7" t="b">
-        <v>0</v>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -40141,8 +41587,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U7" t="b">
-        <v>0</v>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
@@ -40207,8 +41655,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M8" t="b">
-        <v>0</v>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -40240,8 +41690,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U8" t="b">
-        <v>1</v>
+      <c r="U8" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
@@ -40306,8 +41758,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M9" t="b">
-        <v>0</v>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -40339,8 +41793,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U9" t="b">
-        <v>1</v>
+      <c r="U9" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
@@ -40405,8 +41861,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M10" t="b">
-        <v>0</v>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -40438,8 +41896,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U10" t="b">
-        <v>1</v>
+      <c r="U10" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
@@ -40504,8 +41964,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M11" t="b">
-        <v>0</v>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -40537,8 +41999,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U11" t="b">
-        <v>1</v>
+      <c r="U11" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
@@ -40603,8 +42067,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M12" t="b">
-        <v>0</v>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -40636,8 +42102,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U12" t="b">
-        <v>0</v>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
@@ -40881,8 +42349,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>1</v>
+      <c r="M2" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="N2" t="n">
         <v>42960087</v>
@@ -40917,8 +42387,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>1</v>
+      <c r="U2" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -40983,8 +42455,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M3" t="b">
-        <v>1</v>
+      <c r="M3" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="N3" t="n">
         <v>1202250</v>
@@ -41019,8 +42493,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U3" t="b">
-        <v>1</v>
+      <c r="U3" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -41085,8 +42561,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M4" t="b">
-        <v>1</v>
+      <c r="M4" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="N4" t="n">
         <v>2151468</v>
@@ -41121,8 +42599,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U4" t="b">
-        <v>1</v>
+      <c r="U4" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -41187,8 +42667,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M5" t="b">
-        <v>1</v>
+      <c r="M5" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="N5" t="n">
         <v>4771504</v>
@@ -41223,8 +42705,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U5" t="b">
-        <v>1</v>
+      <c r="U5" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -41289,8 +42773,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M6" t="b">
-        <v>1</v>
+      <c r="M6" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="N6" t="n">
         <v>4771504</v>
@@ -41325,8 +42811,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U6" t="b">
-        <v>1</v>
+      <c r="U6" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
@@ -41391,8 +42879,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M7" t="b">
-        <v>0</v>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -41424,8 +42914,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U7" t="b">
-        <v>0</v>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
@@ -41490,8 +42982,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M8" t="b">
-        <v>0</v>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -41523,8 +43017,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U8" t="b">
-        <v>0</v>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
